--- a/data/trans_bre/P0902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.25967351411251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.365412146085172</v>
+        <v>4.365412146085171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5591291531712786</v>
@@ -649,7 +649,7 @@
         <v>1.353600340249153</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5937619973291968</v>
+        <v>0.5937619973291964</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2660329428086899</v>
+        <v>-0.5327419884258194</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.36540831985031</v>
+        <v>7.094535211031501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.885360353114089</v>
+        <v>7.599720949693181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3321708410632203</v>
+        <v>0.1963242786114404</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02914064861848795</v>
+        <v>-0.0616126184036849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4705597700155062</v>
+        <v>0.4078616086402038</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5625836986903812</v>
+        <v>0.5663107704218249</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.008838708284235452</v>
+        <v>0.01374852707211918</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.56266842807085</v>
+        <v>10.22091552637927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.79443319147119</v>
+        <v>21.51456306974516</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.02722801427926</v>
+        <v>20.72392642405055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.473854826662707</v>
+        <v>8.203413990829086</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.764818280825441</v>
+        <v>1.604309304513435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.047015365211707</v>
+        <v>2.04157620978977</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.549808906641196</v>
+        <v>2.716792879400007</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.657551371672739</v>
+        <v>1.453406770298672</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.583606250785158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.286121137298384</v>
+        <v>6.286121137298381</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7597411382839222</v>
@@ -749,7 +749,7 @@
         <v>0.7866822985804365</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3567246596944398</v>
+        <v>0.3567246596944397</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.923434892336293</v>
+        <v>2.815349046389491</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.27924152533638</v>
+        <v>2.992356896642728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.49150889145562</v>
+        <v>2.329427039797769</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.630610409880565</v>
+        <v>1.486745337338145</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2543959163764046</v>
+        <v>0.238316144916338</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2345983761439936</v>
+        <v>0.2403341329882767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.219990170774146</v>
+        <v>0.2318983032503703</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07364230808005537</v>
+        <v>0.06949763134054009</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.44177686032548</v>
+        <v>11.32333679903353</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.5527608177343</v>
+        <v>12.13619646073386</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.76200858333907</v>
+        <v>10.62946952321988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.09382674585894</v>
+        <v>11.06416011717305</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.529323744194484</v>
+        <v>1.544327108279881</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.434244335160507</v>
+        <v>1.414709846575938</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.592395205348653</v>
+        <v>1.61869522405377</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.737125575270094</v>
+        <v>0.7445730485789123</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.866348356515234</v>
+        <v>2.905623414390354</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06495254379365192</v>
+        <v>-0.1440026054681495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.905775659415744</v>
+        <v>-1.244067286828717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4691472740104362</v>
+        <v>-0.48902777291576</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3268951820673051</v>
+        <v>0.4033485701060672</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.004314316777737083</v>
+        <v>-0.01263078328151095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1312760771615173</v>
+        <v>-0.1693658667442594</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03397759428529712</v>
+        <v>-0.03472660146897662</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.43319035917155</v>
+        <v>11.57394059893354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.21176882474726</v>
+        <v>10.95448563908023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.256384112143476</v>
+        <v>8.045335104023694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.711310052852399</v>
+        <v>8.458544889190071</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.567316865124722</v>
+        <v>3.813950148208066</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.224658505299819</v>
+        <v>1.274907637816494</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.448557010139367</v>
+        <v>1.359740755747838</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8135676554128107</v>
+        <v>0.8164315177419458</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.673896537992881</v>
+        <v>6.45307087963565</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.94980296680599</v>
+        <v>10.36085371398066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.737222806794341</v>
+        <v>7.579159459945631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.012715534676484</v>
+        <v>2.265452809201788</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.251951074378898</v>
+        <v>1.12833510222252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5717684511644777</v>
+        <v>0.5539978540071904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3522518587518606</v>
+        <v>0.3652778992163593</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08794507272650516</v>
+        <v>0.1016533194932577</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.65261600086662</v>
+        <v>14.76638845629406</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.25808906219793</v>
+        <v>22.86450225024404</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.92713353305296</v>
+        <v>19.85934995067759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.48553155427405</v>
+        <v>13.98629401301682</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.163417536906808</v>
+        <v>6.430339014092139</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.81799912952977</v>
+        <v>1.860946246131117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.378716632148161</v>
+        <v>1.412759145204028</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9936760519060042</v>
+        <v>1.044998953123198</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.7641903593850383</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8252525116558621</v>
+        <v>0.8252525116558623</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.277962697690714</v>
+        <v>-0.8926323170003208</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.309077892376203</v>
+        <v>7.61499878893421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3314489735868141</v>
+        <v>0.3481419756366308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.480083473563845</v>
+        <v>1.1049280730622</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1589535363418418</v>
+        <v>-0.1083170381432327</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4535860863281017</v>
+        <v>0.4864696534281331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01927355328797229</v>
+        <v>-0.01870655843319186</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1582364218193279</v>
+        <v>0.109409509170957</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.05817502380142</v>
+        <v>9.942967401443079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.11363943466953</v>
+        <v>22.93761946589185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.04693700834635</v>
+        <v>12.48588424586707</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.197513264497204</v>
+        <v>9.149464927268708</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.022702626572342</v>
+        <v>2.230451946578707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.716990187234431</v>
+        <v>2.654376987697441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.382171225692612</v>
+        <v>2.285494631603703</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.064448393221114</v>
+        <v>2.084268841243304</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.152971578393183</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.509573222912408</v>
+        <v>4.509573222912404</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.015334769971812</v>
@@ -1149,7 +1149,7 @@
         <v>0.5151914696612349</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.414687170613803</v>
+        <v>0.4146871706138027</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.740078789719609</v>
+        <v>2.356957928028352</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.124278168455844</v>
+        <v>-2.154912746324741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1850875309843845</v>
+        <v>0.5375753622387625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3665770063271913</v>
+        <v>0.1899525273287694</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2303567462408914</v>
+        <v>0.2132649345793018</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1325792895282135</v>
+        <v>-0.1585153954198035</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004346533092089672</v>
+        <v>0.03307451307009696</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02789095982493698</v>
+        <v>-0.007054936713935183</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.01151071323582</v>
+        <v>13.94035991445634</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.833766506483411</v>
+        <v>10.43551340569016</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.57474527591344</v>
+        <v>13.57966131887883</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.83824036742034</v>
+        <v>8.883340926061264</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.31723438838731</v>
+        <v>2.361572272719148</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.010065103414363</v>
+        <v>0.9917518212433984</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.220527489271812</v>
+        <v>1.222142606734249</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.959751311280656</v>
+        <v>1.000444400572108</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.45236592214921</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.02213669878184</v>
+        <v>10.02213669878185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4414979047922926</v>
@@ -1249,7 +1249,7 @@
         <v>1.221783242888334</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8201179085977309</v>
+        <v>0.8201179085977314</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5445510523208043</v>
+        <v>0.5991942775521525</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.199943890085576</v>
+        <v>4.423993311326671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.319968460261098</v>
+        <v>6.3401560450059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.325516028302189</v>
+        <v>6.320301938602579</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04475774723632388</v>
+        <v>0.04252806142735807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4895939344839768</v>
+        <v>0.4680095696352589</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5865952965561658</v>
+        <v>0.6186873613081996</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4369500066335412</v>
+        <v>0.4425586696898341</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.245091053786165</v>
+        <v>7.547282412106723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.27479197518516</v>
+        <v>11.59186260240875</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.39558885635003</v>
+        <v>14.24471769893804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.36944305505259</v>
+        <v>13.42950596063285</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9582997790677593</v>
+        <v>0.9609416172803368</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.995623863840172</v>
+        <v>1.971993933342332</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.183196611055123</v>
+        <v>2.075897987365503</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.316349753047098</v>
+        <v>1.275937342009152</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>6.840943067150393</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.289931609653783</v>
+        <v>8.289931609653785</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.611649039321976</v>
@@ -1349,7 +1349,7 @@
         <v>1.151413812015721</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.7440821113542171</v>
+        <v>0.7440821113542173</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.516666915320325</v>
+        <v>2.980106482832652</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.375188559651585</v>
+        <v>3.205605846543805</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.663473401244476</v>
+        <v>3.720634457375769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.010707547599313</v>
+        <v>5.09219558627295</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.219961707077392</v>
+        <v>0.2513407808413246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2606362552288982</v>
+        <v>0.2542035807126414</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4953915069085139</v>
+        <v>0.4781151815988386</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3849724724803997</v>
+        <v>0.4003962002731654</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.813663361452054</v>
+        <v>9.823729707725985</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.32271994977673</v>
+        <v>10.34248847491131</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.805934194413974</v>
+        <v>9.970951435608928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.47034797407337</v>
+        <v>11.50492496361364</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.125217184360465</v>
+        <v>1.134910955124832</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.182815152446884</v>
+        <v>1.176269294827388</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.969925741444722</v>
+        <v>2.141097871046323</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.20026840914797</v>
+        <v>1.264107463247376</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.941235208657972</v>
+        <v>5.069613356825497</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.377599868019757</v>
+        <v>7.232948105047003</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.903285799214818</v>
+        <v>6.783630007139661</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.671805428895828</v>
+        <v>5.656492639962794</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5543569391865506</v>
+        <v>0.5744096197612113</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6229793509768591</v>
+        <v>0.6138036475128134</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6757780922902522</v>
+        <v>0.669747796989322</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.4210405129126062</v>
+        <v>0.4173833228302132</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.020125256336428</v>
+        <v>8.023856976890263</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.89737327546901</v>
+        <v>10.81773269234258</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.12564067297398</v>
+        <v>10.26308136031374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.810936956418344</v>
+        <v>8.712976544506002</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.077040117920043</v>
+        <v>1.074225507609279</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.070863379990437</v>
+        <v>1.064080961788311</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.185634846480173</v>
+        <v>1.186083273602961</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.7553906351467985</v>
+        <v>0.7510467978056834</v>
       </c>
     </row>
     <row r="31">
